--- a/outputs/POMPANO5.xlsx
+++ b/outputs/POMPANO5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the conference (ICSE) and needs to ensure she can travel to the location, which involves obtaining a travel visa. The "Visas and Travel" link under the "Attending" section on the conference website aligns with her comprehensive information processing style, as it would provide necessary information for her visa application process.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page layout does not explicitly indicate that "Attending" is a clickable link or what information it might lead to. Abi's low computer self-efficacy and preference for process-oriented learning suggest she might not be confident in clicking on "Attending" without clear instructions or indications of what to expect. This step might feel uncertain or risky to her without additional guidance.</t>
+Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or know to click on "Attending" without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking "Attending," Abi is presented with a drop-down menu that includes "Visas and Travel Authorizations." This clearly indicates that she is making progress toward finding the visa information she needs. The clear labeling and logical placement of the information help confirm that she is on the right track, aligning with her motivations and comprehensive information processing style.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal of obtaining visa information for the conference. Given her comprehensive information processing style, she will recognize this as a step forward in her task.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The drop-down menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on this specific option is the next logical step in her process of gathering the necessary information for her travel visa.</t>
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page titled "Visas and Travel Authorizations" provides comprehensive information about visa requirements, including links to the Canadian government’s visa and ETA details, as well as information about the visa invitation letter. This aligns well with Abi's motivations to find visa information and her comprehensive information processing style. She will recognize that she is making progress toward her goal and has access to the information she needs.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements, including links to the Canadian government pages for entry requirements and Electronic Travel Authorization (ETA). The page also explains the process for obtaining a Visa Invitation Letter. This comprehensive information aligns with Abi's motivation to find visa details and her preference for a thorough understanding of the process. Therefore, she will know she is making progress toward her goal and will get the information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Visa Overview" link is clearly labeled and positioned under the "Visas and Travel Authorizations" section, which Abi is already focused on. Given her motivation to find detailed visa information and her preference for a comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the logical next step to gain more detailed information about the visa requirements.</t>
+Why: The page clearly provides links to "ETA Overview" and "Visa Overview" under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more specific details about the visa requirements. The link is clearly labeled and directly relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The page contains a large amount of detailed information that may be overwhelming for Abi, especially given her low computer self-efficacy. The extensive and unstructured text can make it difficult for her to determine if she is making progress toward her goal and if she has all the information she needs. Abi's preference for comprehensive information processing means she needs clear, well-organized information, but the current format may be too overwhelming and challenging for her to navigate effectively.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the vast amount of information to find what she specifically needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she is on the right track or if she has missed any crucial details. The lack of clear, concise, and organized information can hinder her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO5.xlsx
+++ b/outputs/POMPANO5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to ensure she can travel to the event. Looking for visa information is a logical step toward achieving this goal. Additionally, Abi's comprehensive information processing style means she would consider all necessary steps, including visa requirements, to ensure she can attend the conference without any issues.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would likely consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and is likely to contain relevant information for conference attendees, including visa information. Abi is motivated to find visa information and, given her comprehensive information processing style, she would recognize that clicking on "Attending" is a logical step to find the necessary details.</t>
+Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would likely recognize that clicking on "Attending" is a logical step to find the visa information she needs.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option reassures her that she is making progress toward her goal. Given her comprehensive information processing style, she will recognize that selecting this option will likely provide the detailed information she needs.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that she is on the right track and making progress toward her goal. The dropdown menu provides a clear and direct path to the visa information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Abi, who is motivated to find visa information, will recognize that clicking on this option is the next logical step. Her comprehensive information processing style will guide her to select this option to gather the necessary details for her travel visa.</t>
+Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her subgoal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes links to the Canadian government’s visa and ETA requirements, which are essential for her to understand what is needed for her travel. This comprehensive information aligns with Abi's information processing style and confirms that she is making progress toward her goal of obtaining the necessary visa information.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes links to the Canadian government’s visa and ETA requirements, as well as specific instructions for obtaining a visa invitation letter from the conference organizers. Given Abi's motivation to attend the conference and her comprehensive information processing style, she will recognize that she has made progress toward her goal and has access to the necessary information to proceed with her visa application.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Abi, who is motivated to find detailed visa information, will recognize that clicking on "Visa Overview" is the next logical step to gather comprehensive information about the visa requirements. This aligns with her information processing style, which involves gathering detailed information to form a complete understanding of the visa process.</t>
+Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides a clear link labeled "Visa Overview," which is likely to contain comprehensive information about the visa process. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather all the necessary details about the visa requirements and process. The label is clear and directly relevant to her subgoal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which can be overwhelming. While Abi prefers comprehensive information, the sheer volume and density of the text may make it difficult for her to process and find the specific details she needs. Additionally, given her low computer self-efficacy, she might feel uncertain about whether she has found all the necessary information or if she is interpreting it correctly. This could hinder her confidence in knowing she is making progress toward her goal.</t>
+Why: While Abi will land on a page with extensive information about visa requirements, the page is very long and text-heavy, which may be overwhelming for her. Given her comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details, leading to potential confusion and frustration. The sheer volume of information presented at once could hinder her ability to feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO5.xlsx
+++ b/outputs/POMPANO5.xlsx
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would likely consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+          <t xml:space="preserve">Answer: YES
+Facets: 1.Motivations 
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would likely recognize that clicking on "Attending" is a logical step to find the visa information she needs.</t>
+          <t>Answer: NO
+Facets: 5.Learning Style  6.  None of the Above
+Why: The button Attending is a technical name that doesn't provide any information about what clicking it would do to ABI. So, this runs counter to ABI's learning style and ABI will struggle to do the task.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that she is on the right track and making progress toward her goal. The dropdown menu provides a clear and direct path to the visa information she needs.</t>
+          <t>Answer: NO
+Facets: 1.Motivations, 2. Information Processing Style,  3, None of the Above, 4.Computer Self-Efficacy, 5. Learning Style, 6. None of the Above
+Why: There's no information about visa on this page. Abi's information processing style is comprehensive, and based on her lack of technical proficiency and the fact that the page doesn't mention visas, it's unlikely that she will recognize she's not making progress on her goal of finding visa information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her subgoal.</t>
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The word Visa is clearly written on the button. Also, there is no technical name/jargon on it. So, this doesn't run counter to ABI's information processing style</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes links to the Canadian government’s visa and ETA requirements, as well as specific instructions for obtaining a visa invitation letter from the conference organizers. Given Abi's motivation to attend the conference and her comprehensive information processing style, she will recognize that she has made progress toward her goal and has access to the necessary information to proceed with her visa application.</t>
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa/Invitation Letter". So, Abi will know that she has done the right thing and is making progress towards her goal.</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides a clear link labeled "Visa Overview," which is likely to contain comprehensive information about the visa process. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather all the necessary details about the visa requirements and process. The label is clear and directly relevant to her subgoal.</t>
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the button says "Visa Overview". So, this doesn't run counter to ABI's information processing style</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with extensive information about visa requirements, the page is very long and text-heavy, which may be overwhelming for her. Given her comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details, leading to potential confusion and frustration. The sheer volume of information presented at once could hinder her ability to feel confident that she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa Overview". So she will know that she is making progress towards her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO5.xlsx
+++ b/outputs/POMPANO5.xlsx
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: YES
-Facets: 1.Motivations 
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case </t>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: Abi is motivated to attend the ICSE conference, and looking for visa information is a logical step toward achieving this goal. The "Visas and Travel" link under the "Attending" section suggests that visa information might be available, aligning with her motivation to ensure she can travel to the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 5.Learning Style  6.  None of the Above
-Why: The button Attending is a technical name that doesn't provide any information about what clicking it would do to ABI. So, this runs counter to ABI's learning style and ABI will struggle to do the task.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information, and the "Attending" section is logically related to conference participation details. Her comprehensive information processing style would lead her to explore this section for relevant information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1.Motivations, 2. Information Processing Style,  3, None of the Above, 4.Computer Self-Efficacy, 5. Learning Style, 6. None of the Above
-Why: There's no information about visa on this page. Abi's information processing style is comprehensive, and based on her lack of technical proficiency and the fact that the page doesn't mention visas, it's unlikely that she will recognize she's not making progress on her goal of finding visa information.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with "Visas and Travel Authorizations," which directly relates to her goal of finding visa information. This confirms she is on the right track and making progress toward her goal. The clear labeling aligns with her comprehensive information processing style, providing confidence that she is accessing the relevant information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The word Visa is clearly written on the button. Also, there is no technical name/jargon on it. So, this doesn't run counter to ABI's information processing style</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information, and the "Visas and Travel Authorizations" option is clearly labeled in the dropdown menu. This aligns with her goal, and her comprehensive information processing style will guide her to click on it to access the necessary details.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa/Invitation Letter". So, Abi will know that she has done the right thing and is making progress towards her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page with detailed information about visa requirements and the process for obtaining a visa invitation letter. This directly aligns with her goal of finding visa information, confirming she is making progress. The comprehensive details provided match her information processing style, ensuring she gets the information she needs.</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the button says "Visa Overview". So, this doesn't run counter to ABI's information processing style</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to gather comprehensive visa information, and the "Visa Overview" link is clearly labeled as a source of detailed information. This aligns with her goal and information processing style, guiding her to click on it for further details.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa Overview". So she will know that she is making progress towards her goal.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to sift through and find the specific details she needs. Additionally, her low computer self-efficacy could lead to confusion or uncertainty about whether she has found all the necessary information.</t>
         </is>
       </c>
     </row>
